--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3884.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3884.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>2.362552572353706</v>
+        <v>2.059568881988525</v>
       </c>
       <c r="B1">
-        <v>2.533053992105585</v>
+        <v>2.846658945083618</v>
       </c>
       <c r="C1">
-        <v>2.575086388056846</v>
+        <v>5.189640522003174</v>
       </c>
       <c r="D1">
-        <v>3.301446788902014</v>
+        <v>3.583705902099609</v>
       </c>
       <c r="E1">
-        <v>2.24129947284527</v>
+        <v>1.314777612686157</v>
       </c>
     </row>
   </sheetData>
